--- a/builk-uploads-api/File/uploads/ROLLOVER.xlsx
+++ b/builk-uploads-api/File/uploads/ROLLOVER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvivas\Desktop\Sprofesional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2152D064-F884-4B6B-823D-120E75C79D70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471D57C1-ADC9-470E-B9F6-0981C1C59EA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="17280" windowHeight="8955" xr2:uid="{867653C7-68B8-4854-88C0-6E435D4D67A9}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="18900" windowHeight="11055" xr2:uid="{867653C7-68B8-4854-88C0-6E435D4D67A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
   <si>
     <t>DATE</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>LOYALTY REDEMTION OF PTS</t>
-  </si>
-  <si>
-    <t>15/3/20146</t>
   </si>
 </sst>
 </file>
@@ -541,8 +538,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
+      <c r="A2" s="3">
+        <v>41713</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
